--- a/Overall Result.xlsx
+++ b/Overall Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/jsebastian_2020_scis_smu_edu_sg/Documents/SCHOOL/Year 4 Term 2/QF206 Quantitative Tradg Strategies G1/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juansebastian/Code/horse-race-betting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="11_1CC34F58131CFF2AAC2112BFDFA70B94B08A693D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FEEA522-803E-3940-994C-865BC7E5F931}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D77C1C5-91EA-9C4E-BBAC-F5B7FDDFDABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="19660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Max Drawdown</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>finishingA1:M12_position</t>
+  </si>
+  <si>
+    <t>Mean Variance Strategy</t>
+  </si>
+  <si>
+    <t>Machine Learning Strategy</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB4E2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +373,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,6 +414,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,8 +429,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -427,6 +442,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FF8DB4E2"/>
       <color rgb="FFF9696A"/>
       <color rgb="FF63BE7B"/>
     </mruColors>
@@ -831,520 +847,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="208" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
     <col min="3" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="14" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8">
-        <v>-32375</v>
-      </c>
-      <c r="C4" s="8">
-        <v>15650</v>
-      </c>
-      <c r="D4" s="8">
-        <v>35226.720000000001</v>
-      </c>
-      <c r="E4" s="8">
-        <v>-43470</v>
-      </c>
-      <c r="F4" s="9">
-        <v>5388.03</v>
-      </c>
-      <c r="G4" s="9">
-        <v>41250</v>
-      </c>
-      <c r="H4" s="8">
-        <v>30360.080000000002</v>
-      </c>
-      <c r="I4" s="9">
-        <v>8430</v>
-      </c>
-      <c r="J4" s="9">
-        <v>4914.4799999999996</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5">
-        <v>-0.1368</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-0.18190000000000001</v>
-      </c>
-      <c r="F5" s="5">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J5" s="5">
-        <v>4.9699999999999994E-2</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-32375</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15650</v>
+      </c>
+      <c r="D5" s="8">
+        <v>35226.720000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-43470</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5388.03</v>
+      </c>
+      <c r="G5" s="9">
+        <v>41250</v>
+      </c>
+      <c r="H5" s="8">
+        <v>30360.080000000002</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8430</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4914.4799999999996</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1.3530000000000002</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5.1716999999999995</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4.97</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.1933999999999996</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4.9774000000000003</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1.4058999999999999</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.45390000000000003</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1.2853000000000001</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-0.1368</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-0.18190000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4.9699999999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10">
-        <v>-32800</v>
-      </c>
-      <c r="C7" s="11">
-        <v>-25190</v>
-      </c>
-      <c r="D7" s="11">
-        <v>-5610.39</v>
-      </c>
-      <c r="E7" s="11">
-        <v>-46020</v>
-      </c>
-      <c r="F7" s="11">
-        <v>-2533.67</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-5010</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2980.16</v>
-      </c>
-      <c r="I7" s="10">
-        <v>-6230</v>
-      </c>
-      <c r="J7" s="10">
-        <v>-2820.93</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.3530000000000002</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5.1716999999999995</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4.97</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4.1933999999999996</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.9774000000000003</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.4058999999999999</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.2853000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-32800</v>
+      </c>
+      <c r="C8" s="11">
+        <v>-25190</v>
+      </c>
+      <c r="D8" s="11">
+        <v>-5610.39</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-46020</v>
+      </c>
+      <c r="F8" s="11">
+        <v>-2533.67</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-5010</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2980.16</v>
+      </c>
+      <c r="I8" s="10">
+        <v>-6230</v>
+      </c>
+      <c r="J8" s="10">
+        <v>-2820.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B9" s="12">
         <v>-0.1011</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="13">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>-4.3400000000000001E-2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F9" s="12">
         <v>1.41E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>0.1081</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H9" s="12">
         <v>0.1174</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I9" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J9" s="12">
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="14" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="14" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="11">
-        <v>-32375</v>
-      </c>
-      <c r="C13" s="10">
-        <v>41250</v>
-      </c>
-      <c r="D13" s="11">
-        <v>30360.080000000002</v>
-      </c>
-      <c r="E13" s="10">
-        <v>8430</v>
-      </c>
-      <c r="F13" s="10">
-        <v>4914.4799999999996</v>
-      </c>
-      <c r="G13" s="11">
-        <v>15650</v>
-      </c>
-      <c r="H13" s="11">
-        <v>35226.720000000001</v>
-      </c>
-      <c r="I13" s="11">
-        <v>-43470</v>
-      </c>
-      <c r="J13" s="10">
-        <v>5388.03</v>
-      </c>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5">
-        <v>-0.1368</v>
-      </c>
-      <c r="C14" s="5">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>4.9699999999999994E-2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="I14" s="5">
-        <v>-0.18190000000000001</v>
-      </c>
-      <c r="J14" s="5">
-        <v>7.0199999999999999E-2</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1.3530000000000002</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1.4058999999999999</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.45390000000000003</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1.2853000000000001</v>
-      </c>
-      <c r="G15" s="6">
-        <v>5.1716999999999995</v>
-      </c>
-      <c r="H15" s="6">
-        <v>4.97</v>
-      </c>
-      <c r="I15" s="6">
-        <v>4.1933999999999996</v>
-      </c>
-      <c r="J15" s="6">
-        <v>4.9774000000000003</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="11">
+        <v>-32375</v>
+      </c>
+      <c r="C15" s="10">
+        <v>41250</v>
+      </c>
+      <c r="D15" s="11">
+        <v>30360.080000000002</v>
+      </c>
+      <c r="E15" s="10">
+        <v>8430</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4914.4799999999996</v>
+      </c>
+      <c r="G15" s="11">
+        <v>15650</v>
+      </c>
+      <c r="H15" s="11">
+        <v>35226.720000000001</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-43470</v>
+      </c>
+      <c r="J15" s="10">
+        <v>5388.03</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="10">
-        <v>-32800</v>
-      </c>
-      <c r="C16" s="10">
-        <v>-5010</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2980.16</v>
-      </c>
-      <c r="E16" s="10">
-        <v>-6230</v>
-      </c>
-      <c r="F16" s="10">
-        <v>-2820.93</v>
-      </c>
-      <c r="G16" s="11">
-        <v>-25190</v>
-      </c>
-      <c r="H16" s="11">
-        <v>-5610.39</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-46020</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-2533.67</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-0.1368</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4.9699999999999994E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-0.18190000000000001</v>
+      </c>
+      <c r="J16" s="5">
+        <v>7.0199999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.3530000000000002</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.4058999999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5.1716999999999995</v>
+      </c>
+      <c r="H17" s="6">
+        <v>4.97</v>
+      </c>
+      <c r="I17" s="6">
+        <v>4.1933999999999996</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4.9774000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10">
+        <v>-32800</v>
+      </c>
+      <c r="C18" s="10">
+        <v>-5010</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2980.16</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-6230</v>
+      </c>
+      <c r="F18" s="10">
+        <v>-2820.93</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-25190</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-5610.39</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-46020</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-2533.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B19" s="12">
         <v>-0.1011</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C19" s="12">
         <v>0.1081</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D19" s="12">
         <v>0.1174</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E19" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F19" s="12">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G19" s="13">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H19" s="12">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I19" s="13">
         <v>-4.3400000000000001E-2</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J19" s="12">
         <v>1.41E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+  <mergeCells count="18">
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:J4">
+  <conditionalFormatting sqref="B5:J5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1356,7 +1394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:J5">
+  <conditionalFormatting sqref="B6:J6">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1368,7 +1406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:J6">
+  <conditionalFormatting sqref="B7:J7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1380,7 +1418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:J7">
+  <conditionalFormatting sqref="B8:J8">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1392,7 +1430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:J8">
+  <conditionalFormatting sqref="B9:J9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1404,7 +1442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:J13">
+  <conditionalFormatting sqref="B15:J15">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1416,7 +1454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:J14">
+  <conditionalFormatting sqref="B16:J16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1428,7 +1466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:J15">
+  <conditionalFormatting sqref="B17:J17">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1440,7 +1478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:J16">
+  <conditionalFormatting sqref="B18:J18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1452,7 +1490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:J17">
+  <conditionalFormatting sqref="B19:J19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1473,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926AEE27-FCF7-F74B-A0EB-912D71A82CE3}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1660,7 +1698,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B5">
